--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEBE212-72B2-4223-9C66-72FF7DB3EF48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D8AE8-E623-4723-95C0-BD319310CE14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>sheet名</t>
   </si>
@@ -198,6 +198,78 @@
   </si>
   <si>
     <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5,5,7,7,10,12,15,20,25,30,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.5,2,2.5,3,5,5,7.5,7.5,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3,5,7,8,9,9,10,10,10,10,10,10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,7.5,9,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,15,20,25,30,35,40,45,50,55,60,70</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,4,5,6,7.5,8,9,9,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,7,9,12,15,20,25,30,35,40,45,50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,7,10,15,20,25,30,35,40,50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置商城的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置商城的表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +783,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,22 +821,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -799,7 +895,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,9 +905,9 @@
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="9" width="80.25" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -875,7 +971,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -908,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -927,10 +1023,19 @@
       <c r="F4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="3" t="str">
+        <f>"item_"&amp;D4</f>
+        <v>item_1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -949,10 +1054,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G15" si="0">"item_"&amp;D5</f>
+        <v>item_11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -971,10 +1085,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -993,10 +1116,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1015,10 +1147,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20011</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1037,10 +1178,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20010</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1059,10 +1209,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20006</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1081,10 +1240,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20007</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1103,10 +1271,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20008</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1125,10 +1302,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1147,10 +1333,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1169,10 +1364,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>item_21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D8AE8-E623-4723-95C0-BD319310CE14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C03A3C-70DE-4977-A52A-1F11DFE02413}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>sheet名</t>
   </si>
@@ -186,10 +186,6 @@
   </si>
   <si>
     <t>isOnHock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -270,6 +266,14 @@
   </si>
   <si>
     <t>服务端配置商城的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否计算挂机收益</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -822,20 +826,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -843,20 +847,20 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -895,7 +899,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,7 +907,8 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="6" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
     <col min="9" max="9" width="80.25" customWidth="1"/>
@@ -959,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -990,7 +995,9 @@
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1028,10 +1035,10 @@
         <v>item_1</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -1059,10 +1066,10 @@
         <v>item_11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3">
         <v>50</v>
@@ -1090,10 +1097,10 @@
         <v>item_12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="3">
         <v>100</v>
@@ -1104,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3">
         <v>203</v>
@@ -1121,10 +1128,10 @@
         <v>item_17</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="3">
         <v>100</v>
@@ -1152,10 +1159,10 @@
         <v>item_20011</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
@@ -1183,10 +1190,10 @@
         <v>item_20010</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -1214,10 +1221,10 @@
         <v>item_20006</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="J10" s="3">
         <v>35</v>
@@ -1245,10 +1252,10 @@
         <v>item_20007</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3">
         <v>100</v>
@@ -1276,10 +1283,10 @@
         <v>item_20008</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -1307,10 +1314,10 @@
         <v>item_19</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="3">
         <v>15</v>
@@ -1338,10 +1345,10 @@
         <v>item_20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="3">
         <v>50</v>
@@ -1369,10 +1376,10 @@
         <v>item_21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C03A3C-70DE-4977-A52A-1F11DFE02413}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D958FFC-F306-47E9-97C1-AC6830707509}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商城" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,10 +854,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>58</v>
@@ -898,9 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D958FFC-F306-47E9-97C1-AC6830707509}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9DE2E-7500-4A54-B65D-E42D7A4120CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商城" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,13 +898,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -1135,7 +1137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>301</v>
       </c>
       <c r="D8" s="3">
-        <v>20011</v>
+        <v>20602</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1154,7 +1156,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>item_20011</v>
+        <v>item_20602</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>48</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9DE2E-7500-4A54-B65D-E42D7A4120CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0417F6-29ED-415B-A406-8EAE3A3708EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>sheet名</t>
   </si>
@@ -174,18 +174,6 @@
   </si>
   <si>
     <t>核能精华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>符文宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isOnHock</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -266,14 +254,6 @@
   </si>
   <si>
     <t>服务端配置商城的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否计算挂机收益</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -826,20 +806,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -847,11 +827,11 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -860,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -896,10 +876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,14 +888,13 @@
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
-    <col min="9" max="9" width="80.25" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
+    <col min="8" max="8" width="80.25" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -932,22 +911,19 @@
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -964,22 +940,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -996,22 +969,19 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1027,24 +997,21 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="str">
+      <c r="F4" s="3" t="str">
         <f>"item_"&amp;D4</f>
         <v>item_1</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1060,22 +1027,21 @@
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G15" si="0">"item_"&amp;D5</f>
+      <c r="F5" s="3" t="str">
+        <f>"item_"&amp;D5</f>
         <v>item_11</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3">
         <v>50</v>
       </c>
-      <c r="J5" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1091,27 +1057,26 @@
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="F6" s="3" t="str">
+        <f>"item_"&amp;D6</f>
         <v>item_12</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
         <v>203</v>
@@ -1122,266 +1087,197 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="F7" s="3" t="str">
+        <f>"item_"&amp;D7</f>
         <v>item_17</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="3">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D8" s="3">
-        <v>20602</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20602</v>
+      <c r="F8" s="3" t="str">
+        <f>"item_"&amp;D8</f>
+        <v>item_101</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D9" s="3">
-        <v>20010</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20010</v>
+      <c r="F9" s="3" t="str">
+        <f>"item_"&amp;D9</f>
+        <v>item_102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="3">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D10" s="3">
-        <v>20006</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20006</v>
+      <c r="F10" s="3" t="str">
+        <f>"item_"&amp;D10</f>
+        <v>item_103</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D11" s="3">
-        <v>20007</v>
+        <v>20301</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20007</v>
+      <c r="F11" s="3" t="str">
+        <f>"item_"&amp;D11</f>
+        <v>item_20301</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D12" s="3">
-        <v>20008</v>
+        <v>20302</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20008</v>
+      <c r="F12" s="3" t="str">
+        <f>"item_"&amp;D12</f>
+        <v>item_20302</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D13" s="3">
-        <v>19</v>
+        <v>20303</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_19</v>
+      <c r="F13" s="3" t="str">
+        <f>"item_"&amp;D13</f>
+        <v>item_20303</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3">
-        <v>412</v>
-      </c>
-      <c r="D14" s="3">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3">
-        <v>413</v>
-      </c>
-      <c r="D15" s="3">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_21</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="3">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3">
         <v>100</v>
       </c>
     </row>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0417F6-29ED-415B-A406-8EAE3A3708EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46AF10-BFAE-4286-B36F-971D5D3F4925}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,14 +992,14 @@
         <v>101</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>20402</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>"item_"&amp;D4</f>
-        <v>item_1</v>
+        <f t="shared" ref="F4:F13" si="0">"item_"&amp;D4</f>
+        <v>item_20402</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>41</v>
@@ -1028,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>"item_"&amp;D5</f>
+        <f t="shared" si="0"/>
         <v>item_11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>"item_"&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>item_12</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>"item_"&amp;D7</f>
+        <f t="shared" si="0"/>
         <v>item_17</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1101,7 +1101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>"item_"&amp;D8</f>
+        <f t="shared" si="0"/>
         <v>item_101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1131,7 +1131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>"item_"&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>item_102</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1161,7 +1161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>"item_"&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>item_103</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>"item_"&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>item_20301</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>"item_"&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>item_20302</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>"item_"&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>item_20303</v>
       </c>
       <c r="G13" s="4" t="s">

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46AF10-BFAE-4286-B36F-971D5D3F4925}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E554422-0C91-421F-9FFB-54A3AF004958}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>sheet名</t>
   </si>
@@ -138,30 +138,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜宝箱钥匙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银宝箱钥匙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宝箱钥匙</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -213,26 +189,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5,10,15,20,25,30,35,40,45,50,55,60,70</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2,2,4,5,6,7.5,8,9,9,10,10,10,10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,5,7,9,12,15,20,25,30,35,40,45,50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,7,10,15,20,25,30,35,40,50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>商城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -254,6 +214,46 @@
   </si>
   <si>
     <t>服务端配置商城的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜钥匙</t>
+  </si>
+  <si>
+    <t>银钥匙</t>
+  </si>
+  <si>
+    <t>金钥匙</t>
+  </si>
+  <si>
+    <t>钻钥匙</t>
+  </si>
+  <si>
+    <t>玉钥匙</t>
+  </si>
+  <si>
+    <t>魔钥匙</t>
+  </si>
+  <si>
+    <t>随机铜宝箱</t>
+  </si>
+  <si>
+    <t>随机银宝箱</t>
+  </si>
+  <si>
+    <t>随机金宝箱</t>
+  </si>
+  <si>
+    <t>随机钻宝箱</t>
+  </si>
+  <si>
+    <t>随机玉宝箱</t>
+  </si>
+  <si>
+    <t>随机魔宝箱</t>
+  </si>
+  <si>
+    <t>100,100,100,100,100,100,100,100,100,100,100,100,100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -471,6 +471,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -806,20 +809,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -827,11 +830,11 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -840,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -876,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,7 +892,7 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="48" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
     <col min="8" max="8" width="80.25" customWidth="1"/>
     <col min="9" max="9" width="21.125" customWidth="1"/>
   </cols>
@@ -940,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -986,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>101</v>
@@ -998,14 +1001,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F13" si="0">"item_"&amp;D4</f>
+        <f t="shared" ref="F4:F16" si="0">"item_"&amp;D4</f>
         <v>item_20402</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3">
         <v>50</v>
@@ -1016,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>201</v>
@@ -1032,10 +1035,10 @@
         <v>item_11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3">
         <v>50</v>
@@ -1046,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>202</v>
@@ -1062,10 +1065,10 @@
         <v>item_12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3">
         <v>100</v>
@@ -1076,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>203</v>
@@ -1092,10 +1095,10 @@
         <v>item_17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3">
         <v>100</v>
@@ -1106,10 +1109,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="D8" s="3">
         <v>101</v>
@@ -1118,17 +1121,17 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>"item_"&amp;D8</f>
         <v>item_101</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>45</v>
+      <c r="G8" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1136,10 +1139,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="D9" s="3">
         <v>102</v>
@@ -1148,17 +1151,17 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>"item_"&amp;D9</f>
         <v>item_102</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
+      <c r="G9" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1166,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="D10" s="3">
         <v>103</v>
@@ -1178,17 +1181,17 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>"item_"&amp;D10</f>
         <v>item_103</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>49</v>
+      <c r="G10" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1196,29 +1199,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="D11" s="3">
-        <v>20301</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20301</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>45</v>
+        <f t="shared" ref="F11:F19" si="1">"item_"&amp;D11</f>
+        <v>item_104</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1226,29 +1229,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="D12" s="3">
-        <v>20302</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20302</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>item_105</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1256,29 +1259,209 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3">
+        <v>306</v>
+      </c>
+      <c r="D13" s="3">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_106</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3">
+        <v>401</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20301</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20301</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3">
         <v>35</v>
       </c>
-      <c r="C13" s="3">
-        <v>413</v>
-      </c>
-      <c r="D13" s="3">
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3">
+        <v>402</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20302</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20302</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3">
+        <v>403</v>
+      </c>
+      <c r="D16" s="3">
         <v>20303</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3">
         <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3">
+        <v>404</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20304</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20304</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3">
+        <v>405</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20305</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20305</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
+        <v>406</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20306</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20306</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="3">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E554422-0C91-421F-9FFB-54A3AF004958}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB18DC-2179-4FD6-B331-34FE3B7463B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>sheet名</t>
   </si>
@@ -141,19 +141,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进化材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金币宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能精华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛晶纤维</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -255,6 +243,18 @@
   <si>
     <t>100,100,100,100,100,100,100,100,100,100,100,100,100</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+  </si>
+  <si>
+    <t>战机养成宝箱</t>
+  </si>
+  <si>
+    <t>装备养成宝箱</t>
   </si>
 </sst>
 </file>
@@ -809,20 +809,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -830,11 +830,11 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -843,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -879,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>101</v>
@@ -1001,14 +1001,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F16" si="0">"item_"&amp;D4</f>
+        <f t="shared" ref="F4:F8" si="0">"item_"&amp;D4</f>
         <v>item_20402</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3">
         <v>50</v>
@@ -1019,29 +1019,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3">
         <v>201</v>
       </c>
       <c r="D5" s="3">
-        <v>11</v>
+        <v>20403</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>item_11</v>
+        <v>item_20403</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1049,29 +1049,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>202</v>
       </c>
       <c r="D6" s="3">
-        <v>12</v>
+        <v>20404</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>item_12</v>
+        <v>item_20404</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1079,388 +1079,418 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3">
         <v>203</v>
       </c>
       <c r="D7" s="3">
-        <v>17</v>
+        <v>20405</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>item_17</v>
+        <v>item_20405</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
+      <c r="B8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="3">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3">
-        <v>101</v>
+        <v>20406</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>"item_"&amp;D8</f>
-        <v>item_101</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>item_20406</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>"item_"&amp;D9</f>
-        <v>item_102</v>
+        <v>item_101</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>"item_"&amp;D10</f>
-        <v>item_103</v>
+        <v>item_102</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" ref="F11:F19" si="1">"item_"&amp;D11</f>
-        <v>item_104</v>
+        <f>"item_"&amp;D11</f>
+        <v>item_103</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3">
+        <v>304</v>
+      </c>
+      <c r="D12" s="3">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" ref="F12:F20" si="1">"item_"&amp;D12</f>
+        <v>item_104</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3">
         <v>305</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>105</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="str">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_105</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="I13" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3">
         <v>306</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>106</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="str">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_106</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="G14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3">
         <v>401</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>20301</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="str">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20301</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="I15" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
         <v>402</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>20302</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="str">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20302</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3">
         <v>403</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>20303</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="str">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
         <v>404</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>20304</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="str">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20304</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="G18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3">
         <v>405</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>20305</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="str">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20305</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3">
         <v>406</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>20306</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="str">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20306</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="G20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
     </row>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB18DC-2179-4FD6-B331-34FE3B7463B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF43EA40-2D4B-4CAF-9237-7191E2504404}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>sheet名</t>
   </si>
@@ -149,38 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,4,5,5,7,7,10,12,15,20,25,30,30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1.5,2,2.5,3,5,5,7.5,7.5,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3,5,7,8,9,9,10,10,10,10,10,10</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5,7.5,9,10,10,10,10,10,10,10,10,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,4,5,6,7.5,8,9,9,10,10,10,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>商城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -251,10 +219,38 @@
     <t>晶片宝箱</t>
   </si>
   <si>
-    <t>战机养成宝箱</t>
-  </si>
-  <si>
-    <t>装备养成宝箱</t>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备精炼石宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,4,5,5,7,7,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>2,3,4,4,5,5,7,7,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,2,2,2,2,2,4,4,4,4,4,5,5,5,5,5,7,7,7,7,7,9,9,9,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>50,70,80,90,100,100,100,100,100,100,100,100,100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,20 +805,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -830,11 +826,11 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -843,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -879,15 +875,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
@@ -984,7 +980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1001,496 +997,556 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F8" si="0">"item_"&amp;D4</f>
+        <f t="shared" ref="F4:F10" si="0">"item_"&amp;D4</f>
         <v>item_20402</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
+      <c r="G4" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="3">
         <v>201</v>
       </c>
       <c r="D5" s="3">
+        <v>20405</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>"item_"&amp;D5</f>
+        <v>item_20405</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3">
+        <v>202</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20406</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>"item_"&amp;D6</f>
+        <v>item_20406</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3">
+        <v>203</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20407</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>"item_"&amp;D7</f>
+        <v>item_20407</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3">
+        <v>204</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20408</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>"item_"&amp;D8</f>
+        <v>item_20408</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3">
+        <v>205</v>
+      </c>
+      <c r="D9" s="3">
         <v>20403</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="str">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>item_20403</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3">
-        <v>202</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="10" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3">
+        <v>206</v>
+      </c>
+      <c r="D10" s="3">
         <v>20404</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="str">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>item_20404</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3">
-        <v>203</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20405</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20405</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3">
-        <v>204</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20406</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20406</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="11" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
         <v>301</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3">
         <v>101</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f>"item_"&amp;D9</f>
-        <v>item_101</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3">
-        <v>302</v>
-      </c>
-      <c r="D10" s="3">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="str">
-        <f>"item_"&amp;D10</f>
-        <v>item_102</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3">
-        <v>303</v>
-      </c>
-      <c r="D11" s="3">
-        <v>103</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>"item_"&amp;D11</f>
+        <v>item_101</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3">
+        <v>302</v>
+      </c>
+      <c r="D12" s="3">
+        <v>102</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>"item_"&amp;D12</f>
+        <v>item_102</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3">
+        <v>303</v>
+      </c>
+      <c r="D13" s="3">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>"item_"&amp;D13</f>
         <v>item_103</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="14" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3">
         <v>304</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="3">
         <v>104</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f t="shared" ref="F12:F20" si="1">"item_"&amp;D12</f>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" ref="F14:F22" si="1">"item_"&amp;D14</f>
         <v>item_104</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="15" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
         <v>305</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="3">
         <v>105</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="str">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_105</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3">
         <v>35</v>
       </c>
-      <c r="I13" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3">
+    </row>
+    <row r="16" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3">
         <v>306</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="3">
         <v>106</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="str">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_106</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="17" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3">
         <v>401</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D17" s="3">
         <v>20301</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="str">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20301</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="3">
         <v>35</v>
       </c>
-      <c r="I15" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3">
+    </row>
+    <row r="18" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
         <v>402</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="3">
         <v>20302</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="str">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20302</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="G18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="19" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3">
         <v>403</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D19" s="3">
         <v>20303</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="str">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="G19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="20" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3">
         <v>404</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D20" s="3">
         <v>20304</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="str">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20304</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="21" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3">
         <v>405</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D21" s="3">
         <v>20305</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="str">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20305</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="G21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="3">
+    <row r="22" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3">
         <v>406</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D22" s="3">
         <v>20306</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="str">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20306</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="G22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
     </row>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF43EA40-2D4B-4CAF-9237-7191E2504404}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F6FC0E-5318-4745-A80F-0112CE01E60A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,43 +213,44 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>晶片宝箱</t>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备精炼石宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,4,5,5,7,7,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>2,3,4,4,5,5,7,7,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,2,2,2,2,2,4,4,4,4,4,5,5,5,5,5,7,7,7,7,7,9,9,9,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>50,70,80,90,100,100,100,100,100,100,100,100,100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>装备宝箱</t>
-  </si>
-  <si>
-    <t>晶片宝箱</t>
-  </si>
-  <si>
-    <t>龙晶石宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破丹宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备精炼石宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,4,5,5,7,7,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
-  </si>
-  <si>
-    <t>2,3,4,4,5,5,7,7,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,2,2,2,2,2,4,4,4,4,4,5,5,5,5,5,7,7,7,7,7,9,9,9,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
-  </si>
-  <si>
-    <t>50,70,80,90,100,100,100,100,100,100,100,100,100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命丹宝箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -877,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1002,10 @@
         <v>item_20402</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3">
         <v>50</v>
@@ -1015,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>201</v>
@@ -1031,10 +1032,10 @@
         <v>item_20405</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3">
         <v>200</v>
@@ -1045,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3">
         <v>202</v>
@@ -1061,10 +1062,10 @@
         <v>item_20406</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3">
         <v>200</v>
@@ -1075,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3">
         <v>203</v>
@@ -1091,10 +1092,10 @@
         <v>item_20407</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="3">
         <v>200</v>
@@ -1105,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3">
         <v>204</v>
@@ -1121,10 +1122,10 @@
         <v>item_20408</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="3">
         <v>150</v>
@@ -1134,8 +1135,8 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="3">
         <v>205</v>
@@ -1151,10 +1152,10 @@
         <v>item_20403</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -1165,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3">
         <v>206</v>
@@ -1181,10 +1182,10 @@
         <v>item_20404</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -1214,7 +1215,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3">
         <v>15</v>
@@ -1244,7 +1245,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1274,7 +1275,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3">
         <v>25</v>
@@ -1304,7 +1305,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="3">
         <v>30</v>
@@ -1334,7 +1335,7 @@
         <v>50</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3">
         <v>35</v>
@@ -1364,7 +1365,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3">
         <v>40</v>
@@ -1394,7 +1395,7 @@
         <v>50</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="3">
         <v>35</v>
@@ -1424,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="3">
         <v>60</v>
@@ -1454,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="3">
         <v>100</v>
@@ -1484,7 +1485,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="3">
         <v>150</v>
@@ -1514,7 +1515,7 @@
         <v>50</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="3">
         <v>200</v>
@@ -1544,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F6FC0E-5318-4745-A80F-0112CE01E60A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BE487-A94C-4208-961C-329467DD31C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{06D95D54-4A13-47B3-9605-2F89A20329EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.折扣商店
+2.竞技场商城
+3.竞技场限购商城</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
   <si>
     <t>sheet名</t>
   </si>
@@ -213,6 +251,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>装备宝箱</t>
+  </si>
+  <si>
     <t>晶片宝箱</t>
   </si>
   <si>
@@ -250,7 +291,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>装备宝箱</t>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigeCosts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +400,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -469,7 +544,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -875,685 +950,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="55.125" customWidth="1"/>
-    <col min="8" max="8" width="80.25" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="55.125" customWidth="1"/>
+    <col min="11" max="11" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>101</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>20402</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F10" si="0">"item_"&amp;D4</f>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G10" si="0">"item_"&amp;E4</f>
         <v>item_20402</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="3">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3">
         <v>201</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>20405</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <f>"item_"&amp;D5</f>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>"item_"&amp;E5</f>
         <v>item_20405</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3">
+        <v>202</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20406</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>"item_"&amp;E6</f>
+        <v>item_20406</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="3">
-        <v>202</v>
-      </c>
-      <c r="D6" s="3">
-        <v>20406</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f>"item_"&amp;D6</f>
-        <v>item_20406</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3">
         <v>203</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>20407</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f>"item_"&amp;D7</f>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>"item_"&amp;E7</f>
         <v>item_20407</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+      <c r="J7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3">
         <v>204</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>20408</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f>"item_"&amp;D8</f>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>"item_"&amp;E8</f>
         <v>item_20408</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3">
         <v>205</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>20403</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>item_20403</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+      <c r="J9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3">
         <v>206</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>20404</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>item_20404</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>301</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>101</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f>"item_"&amp;D11</f>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>"item_"&amp;E11</f>
         <v>item_101</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="3">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>302</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>102</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f>"item_"&amp;D12</f>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>"item_"&amp;E12</f>
         <v>item_102</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="3">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>303</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>103</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f>"item_"&amp;D13</f>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>"item_"&amp;E13</f>
         <v>item_103</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="3">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>304</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>104</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f t="shared" ref="F14:F22" si="1">"item_"&amp;D14</f>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ref="G14:G23" si="1">"item_"&amp;E14</f>
         <v>item_104</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="3">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>305</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>105</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_105</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="3">
+        <v>35</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>306</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>106</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_106</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="3">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>401</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>20301</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20301</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="3">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>402</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>20302</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20302</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="3">
+        <v>60</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>403</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>20303</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="3">
+        <v>100</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>404</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>20304</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20304</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="3">
+        <v>150</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>405</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>20305</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20305</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>406</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>20306</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20306</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20402</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20402</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3">
+        <v>201</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20405</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f>"item_"&amp;E24</f>
+        <v>item_20405</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3">
+        <v>202</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20406</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f>"item_"&amp;E25</f>
+        <v>item_20406</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>100</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3">
+        <v>203</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20407</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f>"item_"&amp;E26</f>
+        <v>item_20407</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3">
+        <v>204</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20408</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f>"item_"&amp;E27</f>
+        <v>item_20408</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3">
+        <v>205</v>
+      </c>
+      <c r="E28" s="3">
+        <v>20403</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ref="G28:G30" si="2">"item_"&amp;E28</f>
+        <v>item_20403</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>100</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>206</v>
+      </c>
+      <c r="E29" s="3">
+        <v>20404</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>item_20404</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>100</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3">
+        <v>301</v>
+      </c>
+      <c r="E30" s="3">
+        <v>101</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>"item_"&amp;E30</f>
+        <v>item_101</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>100</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>101</v>
+      </c>
+      <c r="E31" s="3">
+        <v>20402</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" ref="G31:G37" si="3">"item_"&amp;E31</f>
+        <v>item_20402</v>
+      </c>
+      <c r="H31" s="3">
+        <v>50</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3">
+        <v>201</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20405</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>"item_"&amp;E32</f>
+        <v>item_20405</v>
+      </c>
+      <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3">
+        <v>202</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20406</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f>"item_"&amp;E33</f>
+        <v>item_20406</v>
+      </c>
+      <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="3">
+        <v>203</v>
+      </c>
+      <c r="E34" s="3">
+        <v>20407</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f>"item_"&amp;E34</f>
+        <v>item_20407</v>
+      </c>
+      <c r="H34" s="3">
+        <v>200</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3">
+        <v>204</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20408</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>"item_"&amp;E35</f>
+        <v>item_20408</v>
+      </c>
+      <c r="H35" s="3">
+        <v>150</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3">
+        <v>205</v>
+      </c>
+      <c r="E36" s="3">
+        <v>20403</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" ref="G36:G38" si="4">"item_"&amp;E36</f>
+        <v>item_20403</v>
+      </c>
+      <c r="H36" s="3">
         <v>300</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="3">
+        <v>206</v>
+      </c>
+      <c r="E37" s="3">
+        <v>20404</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>item_20404</v>
+      </c>
+      <c r="H37" s="3">
+        <v>300</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="3">
+        <v>301</v>
+      </c>
+      <c r="E38" s="3">
+        <v>101</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f>"item_"&amp;E38</f>
+        <v>item_101</v>
+      </c>
+      <c r="H38" s="3">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BE487-A94C-4208-961C-329467DD31C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5A76F-A802-4D2C-9D3A-DC3103CDDE0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商城" sheetId="26" r:id="rId2"/>
+    <sheet name="商城组" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -58,8 +59,45 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{56DD34CC-9CE1-4FE5-88B2-D904C10EB391}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1是固定商城
+2是随机商城</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="83">
   <si>
     <t>sheet名</t>
   </si>
@@ -195,14 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>uniqueId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,uniqueId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端配置商城的表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,6 +341,74 @@
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场限购商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopId,help_col,uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,shopId,help_col,uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +940,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,7 +949,7 @@
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
@@ -879,56 +977,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -951,66 +1059,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="55.125" customWidth="1"/>
-    <col min="11" max="11" width="80.25" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="55.125" customWidth="1"/>
+    <col min="12" max="12" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1019,1250 +1131,1449 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3">
         <v>101</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>20402</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G10" si="0">"item_"&amp;E4</f>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4:H10" si="0">"item_"&amp;F4</f>
         <v>item_20402</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>50</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="3"/>
+      <c r="K4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="3">
         <v>201</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>20405</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f>"item_"&amp;E5</f>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>"item_"&amp;F5</f>
         <v>item_20405</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>200</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="3"/>
+      <c r="K5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3">
         <v>202</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>20406</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f>"item_"&amp;E6</f>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f>"item_"&amp;F6</f>
         <v>item_20406</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>200</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="3">
         <v>203</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>20407</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f>"item_"&amp;E7</f>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f>"item_"&amp;F7</f>
         <v>item_20407</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>200</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="3"/>
+      <c r="K7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3">
+        <v>204</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20408</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>"item_"&amp;F8</f>
+        <v>item_20408</v>
+      </c>
+      <c r="I8" s="3">
+        <v>150</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3">
-        <v>204</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20408</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f>"item_"&amp;E8</f>
-        <v>item_20408</v>
-      </c>
-      <c r="H8" s="3">
-        <v>150</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3">
         <v>205</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20403</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>item_20403</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+      <c r="K9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3">
         <v>206</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20404</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>item_20404</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="3"/>
+      <c r="K10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3">
         <v>301</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>101</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f>"item_"&amp;E11</f>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f>"item_"&amp;F11</f>
         <v>item_101</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>15</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+      <c r="K11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="3">
         <v>302</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>102</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f>"item_"&amp;E12</f>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f>"item_"&amp;F12</f>
         <v>item_102</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3">
         <v>303</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>103</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f>"item_"&amp;E13</f>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f>"item_"&amp;F13</f>
         <v>item_103</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>25</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="3"/>
+      <c r="K13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3">
         <v>304</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>104</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" ref="G14:G23" si="1">"item_"&amp;E14</f>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" ref="H14:H23" si="1">"item_"&amp;F14</f>
         <v>item_104</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>30</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="3"/>
+      <c r="K14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3">
         <v>305</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>105</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="str">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_105</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="3"/>
+      <c r="K15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3">
         <v>306</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>106</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_106</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>40</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="3"/>
+      <c r="K16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3">
         <v>401</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20301</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20301</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+      <c r="K17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3">
         <v>402</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20302</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20302</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>60</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="3"/>
+      <c r="K18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3">
         <v>403</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>20303</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>100</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+      <c r="K19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3">
         <v>404</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20304</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20304</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>150</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+      <c r="K20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3">
         <v>405</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20305</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20305</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="3"/>
+      <c r="K21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3">
         <v>406</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20306</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20306</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+      <c r="K22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="3">
         <v>101</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20402</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>item_20402</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K23" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3">
         <v>201</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20405</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f>"item_"&amp;E24</f>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>"item_"&amp;F24</f>
         <v>item_20405</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K24" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="3">
         <v>202</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>20406</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f>"item_"&amp;E25</f>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>"item_"&amp;F25</f>
         <v>item_20406</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>100</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K25" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3">
         <v>203</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20407</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f>"item_"&amp;E26</f>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>"item_"&amp;F26</f>
         <v>item_20407</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K26" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="3">
         <v>204</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20408</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f>"item_"&amp;E27</f>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f>"item_"&amp;F27</f>
         <v>item_20408</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K27" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="3">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="3">
         <v>205</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>20403</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="str">
-        <f t="shared" ref="G28:G30" si="2">"item_"&amp;E28</f>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" ref="H28:H29" si="2">"item_"&amp;F28</f>
         <v>item_20403</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>100</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K28" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="3">
         <v>206</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>20404</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="str">
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>item_20404</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K29" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="3">
         <v>301</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>101</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="str">
-        <f>"item_"&amp;E30</f>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>"item_"&amp;F30</f>
         <v>item_101</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>100</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K30" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="3">
         <v>101</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>20402</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="str">
-        <f t="shared" ref="G31:G37" si="3">"item_"&amp;E31</f>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" ref="H31" si="3">"item_"&amp;F31</f>
         <v>item_20402</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>50</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="3">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="3">
         <v>201</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20405</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="str">
-        <f>"item_"&amp;E32</f>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>"item_"&amp;F32</f>
         <v>item_20405</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="3">
+        <v>59</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="3">
         <v>202</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20406</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="str">
-        <f>"item_"&amp;E33</f>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>"item_"&amp;F33</f>
         <v>item_20406</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J33" s="3"/>
       <c r="K33" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="3">
+        <v>51</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3">
         <v>203</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>20407</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f>"item_"&amp;E34</f>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>"item_"&amp;F34</f>
         <v>item_20407</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>200</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J34" s="3"/>
       <c r="K34" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="3">
+        <v>53</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="3">
         <v>204</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20408</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f>"item_"&amp;E35</f>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f>"item_"&amp;F35</f>
         <v>item_20408</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>150</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="3">
+        <v>49</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="3">
         <v>205</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>20403</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" ref="G36:G38" si="4">"item_"&amp;E36</f>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f t="shared" ref="H36:H37" si="4">"item_"&amp;F36</f>
         <v>item_20403</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>300</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J36" s="3"/>
       <c r="K36" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="3">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="3">
         <v>206</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>20404</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="str">
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>item_20404</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>300</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J37" s="3"/>
       <c r="K37" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="3">
+        <v>36</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="3">
         <v>301</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>101</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f>"item_"&amp;E38</f>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f>"item_"&amp;F38</f>
         <v>item_101</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>15</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="J38" s="3"/>
       <c r="K38" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F5DE3-8661-433B-A497-FA9CA42474CC}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5A76F-A802-4D2C-9D3A-DC3103CDDE0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42133F63-BA09-449B-8E4C-07201C29AA16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商城" sheetId="26" r:id="rId2"/>
     <sheet name="商城组" sheetId="27" r:id="rId3"/>
+    <sheet name="老商城" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
   <si>
     <t>sheet名</t>
   </si>
@@ -329,86 +330,142 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>声望消耗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prestigeCosts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
+    <t>商城组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场限购商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopId,help_col,uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,shopId,help_col,uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,uniqueId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDiscount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是折扣商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商城组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签页名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场限购商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>help_col</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopId,help_col,uniqueId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,shopId,help_col,uniqueId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城类型</t>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具消耗ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具消耗权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具消耗值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -624,8 +681,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -645,9 +705,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" quotePrefix="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Grid 2" xfId="13" xr:uid="{702B2CF2-0D13-403C-A210-468EC2861C62}"/>
     <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -940,7 +1013,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -979,21 +1052,21 @@
     </row>
     <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,16 +1078,16 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1035,17 +1108,50 @@
         <v>35</v>
       </c>
       <c r="G4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1059,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,25 +1178,23 @@
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="55.125" customWidth="1"/>
-    <col min="12" max="12" width="80.25" customWidth="1"/>
+    <col min="8" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="55.125" customWidth="1"/>
+    <col min="13" max="13" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -1105,19 +1209,22 @@
         <v>17</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1143,19 +1250,22 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1181,19 +1291,22 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1204,7 +1317,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3">
         <v>101</v>
@@ -1219,18 +1332,21 @@
         <f t="shared" ref="H4:H10" si="0">"item_"&amp;F4</f>
         <v>item_20402</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>50</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1241,7 +1357,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3">
         <v>201</v>
@@ -1256,18 +1372,21 @@
         <f>"item_"&amp;F5</f>
         <v>item_20405</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>200</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1278,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3">
         <v>202</v>
@@ -1293,18 +1412,21 @@
         <f>"item_"&amp;F6</f>
         <v>item_20406</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>200</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1315,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="3">
         <v>203</v>
@@ -1330,18 +1452,21 @@
         <f>"item_"&amp;F7</f>
         <v>item_20407</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>200</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1352,7 +1477,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3">
         <v>204</v>
@@ -1367,18 +1492,21 @@
         <f>"item_"&amp;F8</f>
         <v>item_20408</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>150</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1389,7 +1517,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3">
         <v>205</v>
@@ -1404,18 +1532,21 @@
         <f t="shared" si="0"/>
         <v>item_20403</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1426,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3">
         <v>206</v>
@@ -1441,18 +1572,21 @@
         <f t="shared" si="0"/>
         <v>item_20404</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1463,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>301</v>
@@ -1478,18 +1612,21 @@
         <f>"item_"&amp;F11</f>
         <v>item_101</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>15</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1500,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>302</v>
@@ -1515,18 +1652,21 @@
         <f>"item_"&amp;F12</f>
         <v>item_102</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>20</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1537,7 +1677,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3">
         <v>303</v>
@@ -1552,18 +1692,21 @@
         <f>"item_"&amp;F13</f>
         <v>item_103</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>25</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1574,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3">
         <v>304</v>
@@ -1589,18 +1732,21 @@
         <f t="shared" ref="H14:H23" si="1">"item_"&amp;F14</f>
         <v>item_104</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>30</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1611,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3">
         <v>305</v>
@@ -1626,18 +1772,21 @@
         <f t="shared" si="1"/>
         <v>item_105</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
         <v>35</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1648,7 +1797,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3">
         <v>306</v>
@@ -1663,18 +1812,21 @@
         <f t="shared" si="1"/>
         <v>item_106</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>40</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1685,7 +1837,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3">
         <v>401</v>
@@ -1700,18 +1852,21 @@
         <f t="shared" si="1"/>
         <v>item_20301</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
         <v>35</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1722,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3">
         <v>402</v>
@@ -1737,18 +1892,21 @@
         <f t="shared" si="1"/>
         <v>item_20302</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
         <v>60</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1759,7 +1917,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3">
         <v>403</v>
@@ -1774,18 +1932,21 @@
         <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <v>100</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1796,7 +1957,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
         <v>404</v>
@@ -1811,18 +1972,21 @@
         <f t="shared" si="1"/>
         <v>item_20304</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
         <v>150</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1833,7 +1997,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3">
         <v>405</v>
@@ -1848,18 +2012,21 @@
         <f t="shared" si="1"/>
         <v>item_20305</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1870,7 +2037,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3">
         <v>406</v>
@@ -1885,18 +2052,21 @@
         <f t="shared" si="1"/>
         <v>item_20306</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1907,7 +2077,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="3">
         <v>101</v>
@@ -1922,18 +2092,21 @@
         <f t="shared" si="1"/>
         <v>item_20402</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
+      <c r="I23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1944,7 +2117,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3">
         <v>201</v>
@@ -1959,18 +2132,21 @@
         <f>"item_"&amp;F24</f>
         <v>item_20405</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+      <c r="I24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1981,7 +2157,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3">
         <v>202</v>
@@ -1996,18 +2172,21 @@
         <f>"item_"&amp;F25</f>
         <v>item_20406</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
+      <c r="I25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
         <v>100</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L25" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2018,7 +2197,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3">
         <v>203</v>
@@ -2033,18 +2212,21 @@
         <f>"item_"&amp;F26</f>
         <v>item_20407</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
+      <c r="I26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L26" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2055,7 +2237,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3">
         <v>204</v>
@@ -2070,18 +2252,21 @@
         <f>"item_"&amp;F27</f>
         <v>item_20408</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="I27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L27" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2092,7 +2277,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3">
         <v>205</v>
@@ -2107,18 +2292,21 @@
         <f t="shared" ref="H28:H29" si="2">"item_"&amp;F28</f>
         <v>item_20403</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+      <c r="I28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>100</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L28" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2129,7 +2317,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E29" s="3">
         <v>206</v>
@@ -2144,18 +2332,21 @@
         <f t="shared" si="2"/>
         <v>item_20404</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="I29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L29" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2166,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3">
         <v>301</v>
@@ -2181,18 +2372,21 @@
         <f>"item_"&amp;F30</f>
         <v>item_101</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
+      <c r="I30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
         <v>100</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L30" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2203,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" s="3">
         <v>101</v>
@@ -2218,18 +2412,21 @@
         <f t="shared" ref="H31" si="3">"item_"&amp;F31</f>
         <v>item_20402</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
         <v>50</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L31" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2240,7 +2437,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E32" s="3">
         <v>201</v>
@@ -2255,18 +2452,21 @@
         <f>"item_"&amp;F32</f>
         <v>item_20405</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2277,7 +2477,7 @@
         <v>59</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33" s="3">
         <v>202</v>
@@ -2292,18 +2492,21 @@
         <f>"item_"&amp;F33</f>
         <v>item_20406</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L33" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2314,7 +2517,7 @@
         <v>51</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="3">
         <v>203</v>
@@ -2329,18 +2532,21 @@
         <f>"item_"&amp;F34</f>
         <v>item_20407</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
         <v>200</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L34" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2351,7 +2557,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E35" s="3">
         <v>204</v>
@@ -2366,18 +2572,21 @@
         <f>"item_"&amp;F35</f>
         <v>item_20408</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
         <v>150</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L35" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2388,7 +2597,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3">
         <v>205</v>
@@ -2403,18 +2612,21 @@
         <f t="shared" ref="H36:H37" si="4">"item_"&amp;F36</f>
         <v>item_20403</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
         <v>300</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L36" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2425,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3">
         <v>206</v>
@@ -2440,18 +2652,21 @@
         <f t="shared" si="4"/>
         <v>item_20404</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
         <v>300</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L37" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2462,7 +2677,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E38" s="3">
         <v>301</v>
@@ -2477,15 +2692,18 @@
         <f>"item_"&amp;F38</f>
         <v>item_101</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3">
         <v>15</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="L38" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2498,81 +2716,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5F5DE3-8661-433B-A497-FA9CA42474CC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2582,4 +2819,688 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="55.125" customWidth="1"/>
+    <col min="8" max="8" width="80.25" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>101</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20402</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F10" si="0">"item_"&amp;D4</f>
+        <v>item_20402</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7">
+        <v>201</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20405</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>"item_"&amp;D5</f>
+        <v>item_20405</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7">
+        <v>202</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20406</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>"item_"&amp;D6</f>
+        <v>item_20406</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7">
+        <v>203</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20407</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>"item_"&amp;D7</f>
+        <v>item_20407</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="7">
+        <v>204</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20408</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>"item_"&amp;D8</f>
+        <v>item_20408</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="7">
+        <v>205</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20403</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20403</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7">
+        <v>206</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20404</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>item_20404</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7">
+        <v>301</v>
+      </c>
+      <c r="D11" s="7">
+        <v>101</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>"item_"&amp;D11</f>
+        <v>item_101</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7">
+        <v>302</v>
+      </c>
+      <c r="D12" s="7">
+        <v>102</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>"item_"&amp;D12</f>
+        <v>item_102</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7">
+        <v>303</v>
+      </c>
+      <c r="D13" s="7">
+        <v>103</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>"item_"&amp;D13</f>
+        <v>item_103</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7">
+        <v>304</v>
+      </c>
+      <c r="D14" s="7">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" ref="F14:F22" si="1">"item_"&amp;D14</f>
+        <v>item_104</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7">
+        <v>105</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_105</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7">
+        <v>306</v>
+      </c>
+      <c r="D16" s="7">
+        <v>106</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_106</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7">
+        <v>401</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20301</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20301</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7">
+        <v>402</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20302</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20302</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="7">
+        <v>403</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20303</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20303</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7">
+        <v>404</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20304</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20304</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7">
+        <v>405</v>
+      </c>
+      <c r="D21" s="7">
+        <v>20305</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20305</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="7">
+        <v>406</v>
+      </c>
+      <c r="D22" s="7">
+        <v>20306</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>item_20306</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="7">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42133F63-BA09-449B-8E4C-07201C29AA16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC57D491-FC54-41C2-8027-D83FE73CF5F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>58</v>
@@ -2825,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3105,7 +3105,7 @@
         <v>55</v>
       </c>
       <c r="I9" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC57D491-FC54-41C2-8027-D83FE73CF5F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAFA9C0-AAE0-4190-ABFC-C383C1A4CBE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2825,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3104,7 +3104,7 @@
       <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>150</v>
       </c>
     </row>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAFA9C0-AAE0-4190-ABFC-C383C1A4CBE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86C200-CCEF-4EF7-996B-ADA14887DFB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="97">
   <si>
     <t>sheet名</t>
   </si>
@@ -2823,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3138,366 +3138,6 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7">
-        <v>301</v>
-      </c>
-      <c r="D11" s="7">
-        <v>101</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>"item_"&amp;D11</f>
-        <v>item_101</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7">
-        <v>302</v>
-      </c>
-      <c r="D12" s="7">
-        <v>102</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>"item_"&amp;D12</f>
-        <v>item_102</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7">
-        <v>303</v>
-      </c>
-      <c r="D13" s="7">
-        <v>103</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>"item_"&amp;D13</f>
-        <v>item_103</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7">
-        <v>304</v>
-      </c>
-      <c r="D14" s="7">
-        <v>104</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f t="shared" ref="F14:F22" si="1">"item_"&amp;D14</f>
-        <v>item_104</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7">
-        <v>305</v>
-      </c>
-      <c r="D15" s="7">
-        <v>105</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_105</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7">
-        <v>306</v>
-      </c>
-      <c r="D16" s="7">
-        <v>106</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_106</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="7">
-        <v>401</v>
-      </c>
-      <c r="D17" s="7">
-        <v>20301</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_20301</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7">
-        <v>402</v>
-      </c>
-      <c r="D18" s="7">
-        <v>20302</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_20302</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7">
-        <v>403</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20303</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_20303</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="7">
-        <v>404</v>
-      </c>
-      <c r="D20" s="7">
-        <v>20304</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_20304</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="7">
-        <v>405</v>
-      </c>
-      <c r="D21" s="7">
-        <v>20305</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_20305</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="99" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="7">
-        <v>406</v>
-      </c>
-      <c r="D22" s="7">
-        <v>20306</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>item_20306</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="7">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86C200-CCEF-4EF7-996B-ADA14887DFB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A3036-E838-4B19-8236-B9E43DE1DB72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
   <si>
     <t>sheet名</t>
   </si>
@@ -467,6 +467,42 @@
   <si>
     <t>声望</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+  </si>
+  <si>
+    <t>金币幸运宝箱</t>
+  </si>
+  <si>
+    <t>天命石宝箱</t>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+  </si>
+  <si>
+    <t>item_20402</t>
+  </si>
+  <si>
+    <t>item_20405</t>
+  </si>
+  <si>
+    <t>item_20406</t>
+  </si>
+  <si>
+    <t>item_20407</t>
+  </si>
+  <si>
+    <t>item_20408</t>
+  </si>
+  <si>
+    <t>item_20403</t>
+  </si>
+  <si>
+    <t>item_20404</t>
   </si>
 </sst>
 </file>
@@ -2825,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2938,15 +2974,14 @@
       <c r="C4" s="7">
         <v>101</v>
       </c>
-      <c r="D4" s="7">
-        <v>20402</v>
+      <c r="D4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="str">
-        <f t="shared" ref="F4:F10" si="0">"item_"&amp;D4</f>
-        <v>item_20402</v>
+      <c r="F4" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>58</v>
@@ -2968,15 +3003,14 @@
       <c r="C5" s="7">
         <v>201</v>
       </c>
-      <c r="D5" s="7">
-        <v>20405</v>
+      <c r="D5" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="str">
-        <f>"item_"&amp;D5</f>
-        <v>item_20405</v>
+      <c r="F5" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>58</v>
@@ -2998,15 +3032,14 @@
       <c r="C6" s="7">
         <v>202</v>
       </c>
-      <c r="D6" s="7">
-        <v>20406</v>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="str">
-        <f>"item_"&amp;D6</f>
-        <v>item_20406</v>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>58</v>
@@ -3028,15 +3061,14 @@
       <c r="C7" s="7">
         <v>203</v>
       </c>
-      <c r="D7" s="7">
-        <v>20407</v>
+      <c r="D7" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="str">
-        <f>"item_"&amp;D7</f>
-        <v>item_20407</v>
+      <c r="F7" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>58</v>
@@ -3058,15 +3090,14 @@
       <c r="C8" s="7">
         <v>204</v>
       </c>
-      <c r="D8" s="7">
-        <v>20408</v>
+      <c r="D8" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="str">
-        <f>"item_"&amp;D8</f>
-        <v>item_20408</v>
+      <c r="F8" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>58</v>
@@ -3078,7 +3109,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -3088,15 +3119,14 @@
       <c r="C9" s="7">
         <v>205</v>
       </c>
-      <c r="D9" s="7">
-        <v>20403</v>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20403</v>
+      <c r="F9" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>58</v>
@@ -3118,15 +3148,14 @@
       <c r="C10" s="7">
         <v>206</v>
       </c>
-      <c r="D10" s="7">
-        <v>20404</v>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>item_20404</v>
+      <c r="F10" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>58</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A3036-E838-4B19-8236-B9E43DE1DB72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA2BE2-3928-4153-B69E-812EB2069A1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,25 +484,25 @@
     <t>精炼石宝箱</t>
   </si>
   <si>
-    <t>item_20402</t>
-  </si>
-  <si>
-    <t>item_20405</t>
-  </si>
-  <si>
-    <t>item_20406</t>
-  </si>
-  <si>
-    <t>item_20407</t>
-  </si>
-  <si>
-    <t>item_20408</t>
-  </si>
-  <si>
-    <t>item_20403</t>
-  </si>
-  <si>
-    <t>item_20404</t>
+    <t>box_wealth</t>
+  </si>
+  <si>
+    <t>item_17</t>
+  </si>
+  <si>
+    <t>item_12</t>
+  </si>
+  <si>
+    <t>item_13</t>
+  </si>
+  <si>
+    <t>item_18</t>
+  </si>
+  <si>
+    <t>box_equip</t>
+  </si>
+  <si>
+    <t>box_chip</t>
   </si>
 </sst>
 </file>
@@ -2862,7 +2862,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA2BE2-3928-4153-B69E-812EB2069A1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283EBA73-BDB3-440D-80E9-1BD30752CDC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,22 +487,24 @@
     <t>box_wealth</t>
   </si>
   <si>
-    <t>item_17</t>
-  </si>
-  <si>
-    <t>item_12</t>
-  </si>
-  <si>
-    <t>item_13</t>
-  </si>
-  <si>
-    <t>item_18</t>
-  </si>
-  <si>
     <t>box_equip</t>
   </si>
   <si>
     <t>box_chip</t>
+  </si>
+  <si>
+    <t>box_zhihui</t>
+  </si>
+  <si>
+    <t>box_hezi</t>
+  </si>
+  <si>
+    <t>box_jinghe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_xianwei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2862,7 +2864,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3010,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>58</v>
@@ -3039,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>58</v>
@@ -3068,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>58</v>
@@ -3097,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>58</v>
@@ -3126,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>58</v>
@@ -3155,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>58</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283EBA73-BDB3-440D-80E9-1BD30752CDC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680DA73-F798-483B-8552-C72E10C7E0D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="商城" sheetId="26" r:id="rId2"/>
-    <sheet name="商城组" sheetId="27" r:id="rId3"/>
-    <sheet name="老商城" sheetId="28" r:id="rId4"/>
+    <sheet name="新商城" sheetId="26" state="hidden" r:id="rId2"/>
+    <sheet name="商城组" sheetId="27" state="hidden" r:id="rId3"/>
+    <sheet name="商城" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="108">
   <si>
     <t>sheet名</t>
   </si>
@@ -402,10 +402,6 @@
   </si>
   <si>
     <t>装备宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>老商城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1048,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1088,111 +1084,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="b">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="18" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="b">
+      <c r="G18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="G19" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1247,13 +1243,13 @@
         <v>17</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
@@ -1288,13 +1284,13 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
         <v>89</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>90</v>
-      </c>
-      <c r="K2" t="s">
-        <v>91</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -1329,13 +1325,13 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
@@ -1371,7 +1367,7 @@
         <v>item_20402</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
@@ -1411,7 +1407,7 @@
         <v>item_20405</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3">
@@ -1451,7 +1447,7 @@
         <v>item_20406</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
@@ -1491,7 +1487,7 @@
         <v>item_20407</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
@@ -1531,7 +1527,7 @@
         <v>item_20408</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
@@ -1571,7 +1567,7 @@
         <v>item_20403</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
@@ -1611,7 +1607,7 @@
         <v>item_20404</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
@@ -1651,7 +1647,7 @@
         <v>item_101</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3">
@@ -1691,7 +1687,7 @@
         <v>item_102</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
@@ -1731,7 +1727,7 @@
         <v>item_103</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
@@ -1771,7 +1767,7 @@
         <v>item_104</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
@@ -1811,7 +1807,7 @@
         <v>item_105</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
@@ -1851,7 +1847,7 @@
         <v>item_106</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
@@ -1891,7 +1887,7 @@
         <v>item_20301</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
@@ -1931,7 +1927,7 @@
         <v>item_20302</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
@@ -1971,7 +1967,7 @@
         <v>item_20303</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
@@ -2011,7 +2007,7 @@
         <v>item_20304</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3">
@@ -2051,7 +2047,7 @@
         <v>item_20305</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3">
@@ -2091,7 +2087,7 @@
         <v>item_20306</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3">
@@ -2131,7 +2127,7 @@
         <v>item_20402</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3">
@@ -2171,7 +2167,7 @@
         <v>item_20405</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3">
@@ -2211,7 +2207,7 @@
         <v>item_20406</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3">
@@ -2251,7 +2247,7 @@
         <v>item_20407</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3">
@@ -2291,7 +2287,7 @@
         <v>item_20408</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3">
@@ -2331,7 +2327,7 @@
         <v>item_20403</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3">
@@ -2371,7 +2367,7 @@
         <v>item_20404</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3">
@@ -2411,7 +2407,7 @@
         <v>item_101</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3">
@@ -2451,7 +2447,7 @@
         <v>item_20402</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
@@ -2491,7 +2487,7 @@
         <v>item_20405</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
@@ -2531,7 +2527,7 @@
         <v>item_20406</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
@@ -2571,7 +2567,7 @@
         <v>item_20407</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
@@ -2611,7 +2607,7 @@
         <v>item_20408</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
@@ -2651,7 +2647,7 @@
         <v>item_20403</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3">
@@ -2691,7 +2687,7 @@
         <v>item_20404</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
@@ -2731,7 +2727,7 @@
         <v>item_101</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3">
@@ -2757,7 +2753,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2778,7 +2774,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2792,7 +2788,7 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -2806,7 +2802,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2863,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2977,13 +2973,13 @@
         <v>101</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>58</v>
@@ -3006,13 +3002,13 @@
         <v>201</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>58</v>
@@ -3035,13 +3031,13 @@
         <v>202</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>58</v>
@@ -3064,13 +3060,13 @@
         <v>203</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>58</v>
@@ -3093,13 +3089,13 @@
         <v>204</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>58</v>
@@ -3128,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>58</v>
@@ -3157,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>58</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680DA73-F798-483B-8552-C72E10C7E0D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B35E9-6B48-4668-A4C9-0CA137D4257D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="117">
   <si>
     <t>sheet名</t>
   </si>
@@ -500,6 +500,40 @@
   </si>
   <si>
     <t>box_xianwei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,3,3,4,4,4,4,5,5,5,5,6,6,6,6,7,7,7,7,8,8,8,8,8.5,8.5,8.5,8.5,9,9,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙魂石宝箱</t>
+  </si>
+  <si>
+    <t>龙魂石宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙元石宝箱</t>
+  </si>
+  <si>
+    <t>龙元石宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,4,4,4,5,5,5,6,6,6,7,7,7,8,8,8,9,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,67 +1160,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2857,25 +2891,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="55.125" customWidth="1"/>
-    <col min="8" max="8" width="80.25" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="3" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="55.125" customWidth="1"/>
+    <col min="9" max="9" width="80.25" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2886,25 +2920,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2915,25 +2952,28 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2944,25 +2984,28 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2972,26 +3015,29 @@
       <c r="C4" s="7">
         <v>101</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -3001,26 +3047,29 @@
       <c r="C5" s="7">
         <v>201</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -3030,26 +3079,29 @@
       <c r="C6" s="7">
         <v>202</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -3059,109 +3111,181 @@
       <c r="C7" s="7">
         <v>203</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="7">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="7">
+        <v>207</v>
+      </c>
+      <c r="D8" s="7">
+        <v>250</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="7">
+        <v>208</v>
+      </c>
+      <c r="D9" s="7">
+        <v>500</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="J9" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C10" s="7">
         <v>204</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J10" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="7">
         <v>205</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="7">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J11" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="7">
         <v>206</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D12" s="7">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J12" s="7">
         <v>300</v>
       </c>
     </row>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B35E9-6B48-4668-A4C9-0CA137D4257D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87FBBA-27E6-48E1-9845-36651A4CA28A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2894,7 +2894,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3101,7 +3101,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -3133,8 +3133,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>110</v>
       </c>
@@ -3164,7 +3166,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>112</v>
       </c>
@@ -3195,7 +3199,7 @@
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>53</v>
@@ -3227,7 +3231,7 @@
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>80</v>
@@ -3259,7 +3263,7 @@
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>50</v>

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87FBBA-27E6-48E1-9845-36651A4CA28A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64179764-C49C-4DB1-AC76-AB876AE3392F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3226,7 +3226,7 @@
         <v>55</v>
       </c>
       <c r="J10" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/shop.商城.xlsx
+++ b/Excel/shop.商城.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64179764-C49C-4DB1-AC76-AB876AE3392F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B3851-3BCE-40CB-997F-9626EEE4D0B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="147">
   <si>
     <t>sheet名</t>
   </si>
@@ -535,6 +535,539 @@
   <si>
     <t>等级限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物丹</t>
+  </si>
+  <si>
+    <r>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9999</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级攻击晶片</t>
+  </si>
+  <si>
+    <t>1级防御晶片</t>
+  </si>
+  <si>
+    <t>1级生命晶片</t>
+  </si>
+  <si>
+    <t>1级护盾晶片</t>
+  </si>
+  <si>
+    <t>1级盾复晶片</t>
+  </si>
+  <si>
+    <t>1级暴击晶片</t>
+  </si>
+  <si>
+    <t>1级抗暴晶片</t>
+  </si>
+  <si>
+    <t>1级冲击晶片</t>
+  </si>
+  <si>
+    <t>1级格挡晶片</t>
+  </si>
+  <si>
+    <t>1级增伤晶片</t>
+  </si>
+  <si>
+    <t>1级减伤晶片</t>
+  </si>
+  <si>
+    <t>1级财富晶片</t>
+  </si>
+  <si>
+    <t>1级幸运晶片</t>
+  </si>
+  <si>
+    <t>chip_q1_1</t>
+  </si>
+  <si>
+    <t>chip_q1_2</t>
+  </si>
+  <si>
+    <t>chip_q1_3</t>
+  </si>
+  <si>
+    <t>chip_q1_4</t>
+  </si>
+  <si>
+    <t>chip_q1_5</t>
+  </si>
+  <si>
+    <t>chip_q1_6</t>
+  </si>
+  <si>
+    <t>chip_q1_7</t>
+  </si>
+  <si>
+    <t>chip_q1_8</t>
+  </si>
+  <si>
+    <t>chip_q1_9</t>
+  </si>
+  <si>
+    <t>chip_q1_10</t>
+  </si>
+  <si>
+    <t>chip_q1_11</t>
+  </si>
+  <si>
+    <t>chip_q1_12</t>
+  </si>
+  <si>
+    <t>chip_q1_13</t>
   </si>
 </sst>
 </file>
@@ -719,7 +1252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -749,12 +1282,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -773,22 +1306,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" quotePrefix="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Grid 2" xfId="13" xr:uid="{702B2CF2-0D13-403C-A210-468EC2861C62}"/>
     <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1096,29 +1621,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
@@ -1135,15 +1660,15 @@
       <c r="F2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
@@ -1156,71 +1681,71 @@
       <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="7" t="b">
+      <c r="G3" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="b">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="3" t="b">
+      <c r="G17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="3" t="b">
+      <c r="G18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1252,43 +1777,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1334,1443 +1859,1443 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>1001</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>101</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>20402</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="str">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H10" si="0">"item_"&amp;F4</f>
         <v>item_20402</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>50</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>201</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>20405</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="str">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="str">
         <f>"item_"&amp;F5</f>
         <v>item_20405</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>200</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>1001</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>202</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>20406</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="str">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="str">
         <f>"item_"&amp;F6</f>
         <v>item_20406</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>200</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1001</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>203</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>20407</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="str">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="str">
         <f>"item_"&amp;F7</f>
         <v>item_20407</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
         <v>200</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>1001</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>204</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>20408</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="str">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="str">
         <f>"item_"&amp;F8</f>
         <v>item_20408</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>150</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>1001</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>205</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>20403</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="str">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>item_20403</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>150</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1001</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>206</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>20404</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="str">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>item_20404</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>300</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>1001</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>301</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>101</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="str">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f>"item_"&amp;F11</f>
         <v>item_101</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>15</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>1001</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>302</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>102</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="str">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f>"item_"&amp;F12</f>
         <v>item_102</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>20</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>1001</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>303</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>103</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="str">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="str">
         <f>"item_"&amp;F13</f>
         <v>item_103</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <v>25</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>1001</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>304</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>104</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="str">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="str">
         <f t="shared" ref="H14:H23" si="1">"item_"&amp;F14</f>
         <v>item_104</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>30</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>1001</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>305</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>105</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="str">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_105</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <v>35</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>1001</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>306</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>106</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="str">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_106</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>40</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>1001</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>401</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>20301</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="str">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20301</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <v>35</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>1001</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>402</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>20302</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="str">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20302</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>60</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>1001</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>403</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>20303</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="str">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20303</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>100</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>1001</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>404</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>20304</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="str">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20304</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <v>150</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>1001</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>405</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>20305</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="str">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20305</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>200</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>1001</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>406</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>20306</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="str">
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20306</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
         <v>300</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>2001</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>101</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>20402</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="str">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>item_20402</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>100</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>2001</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>201</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>20405</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="str">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="str">
         <f>"item_"&amp;F24</f>
         <v>item_20405</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <v>100</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>2001</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>202</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>20406</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="str">
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="str">
         <f>"item_"&amp;F25</f>
         <v>item_20406</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>100</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>2001</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>203</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>20407</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="str">
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="str">
         <f>"item_"&amp;F26</f>
         <v>item_20407</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <v>100</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>2001</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>204</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>20408</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="str">
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
         <f>"item_"&amp;F27</f>
         <v>item_20408</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
         <v>100</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>2001</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>205</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>20403</v>
       </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="str">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="str">
         <f t="shared" ref="H28:H29" si="2">"item_"&amp;F28</f>
         <v>item_20403</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
         <v>100</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>2001</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>206</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>20404</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="str">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_20404</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
         <v>100</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>2001</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>301</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>101</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="str">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="str">
         <f>"item_"&amp;F30</f>
         <v>item_101</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
         <v>100</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>2002</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>101</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>20402</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="str">
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="str">
         <f t="shared" ref="H31" si="3">"item_"&amp;F31</f>
         <v>item_20402</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
         <v>50</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>2002</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>201</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>20405</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="str">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="str">
         <f>"item_"&amp;F32</f>
         <v>item_20405</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4">
         <v>200</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>2002</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>202</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>20406</v>
       </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="str">
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="str">
         <f>"item_"&amp;F33</f>
         <v>item_20406</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
         <v>200</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>2002</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>203</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>20407</v>
       </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="str">
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="str">
         <f>"item_"&amp;F34</f>
         <v>item_20407</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
         <v>200</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>2002</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>204</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>20408</v>
       </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="str">
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="str">
         <f>"item_"&amp;F35</f>
         <v>item_20408</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
         <v>150</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>2002</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>205</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>20403</v>
       </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="str">
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="str">
         <f t="shared" ref="H36:H37" si="4">"item_"&amp;F36</f>
         <v>item_20403</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
         <v>300</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>2002</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>206</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>20404</v>
       </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="str">
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="str">
         <f t="shared" si="4"/>
         <v>item_20404</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
         <v>300</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>2002</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>301</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>101</v>
       </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="str">
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="str">
         <f>"item_"&amp;F38</f>
         <v>item_101</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
         <v>15</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M38" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2798,13 +3323,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -2826,58 +3351,58 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="b">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2001</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="b">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2002</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="b">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2891,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71CFBAF-8EEA-4EA5-8247-6C771B528E09}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2910,34 +3435,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2974,322 +3499,770 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>101</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>201</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>202</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>203</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>70</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>207</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>250</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>208</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>500</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>204</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>205</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>206</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>60</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4">
+        <v>209</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="4">
+        <v>301</v>
+      </c>
+      <c r="D14" s="4">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="4">
+        <v>302</v>
+      </c>
+      <c r="D15" s="4">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="4">
+        <v>303</v>
+      </c>
+      <c r="D16" s="4">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="4">
+        <v>304</v>
+      </c>
+      <c r="D17" s="4">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4">
+        <v>305</v>
+      </c>
+      <c r="D18" s="4">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="4">
+        <v>306</v>
+      </c>
+      <c r="D19" s="4">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="4">
+        <v>307</v>
+      </c>
+      <c r="D20" s="4">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="4">
+        <v>308</v>
+      </c>
+      <c r="D21" s="4">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="4">
+        <v>309</v>
+      </c>
+      <c r="D22" s="4">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4">
+        <v>310</v>
+      </c>
+      <c r="D23" s="4">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="4">
+        <v>311</v>
+      </c>
+      <c r="D24" s="4">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="4">
+        <v>312</v>
+      </c>
+      <c r="D25" s="4">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="4">
+        <v>313</v>
+      </c>
+      <c r="D26" s="4">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="4">
         <v>300</v>
       </c>
     </row>
